--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1797494.911695782</v>
+        <v>1795242.831984575</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283201</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629562</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>376.5836778864626</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>118.7766241650356</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.0414190854971</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.9571464892299</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>173.0840193652027</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>232.4753817320662</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877527</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>72.11102768971557</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>5.173720079376082</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580238</v>
       </c>
       <c r="S13" t="n">
-        <v>103.2360561910019</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784668</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763389</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182199</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>54.31367585847885</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042189</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.8435308896552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>137.9792024346624</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688092805</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362925</v>
       </c>
       <c r="V40" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385611643</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012.898941548398</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1643.936424607986</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.670726001236</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>899.8824734029915</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>488.896568613384</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548398</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1065.372881705156</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>896.4366987772489</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>746.3200593649132</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>598.40696578252</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>451.5170182846097</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>283.8141816593286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603173</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>1065.372881705156</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1065.372881705156</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>817.0352339990397</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>817.0352339990397</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>810.0897332498363</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3040.482810343132</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2786.952333616968</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.952333616968</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1189.187973331195</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>934.5034851253081</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>645.0863150883474</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>417.0967641903301</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
         <v>828.1105664881544</v>
@@ -4814,10 +4814,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3252.766399700367</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2999.235922974203</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2668.173035630633</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2315.404380360518</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.938622099438</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7230209076293</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>777.7868379797225</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635886</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.371485737869</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>1128.371485737869</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239594</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397178</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2342.684238942884</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2123.082773965825</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5267,55 +5267,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273898</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684976</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.288144095049</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449169</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>377.6556127449169</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>230.7656652470066</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>230.7656652470066</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,13 +5604,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206044</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926976</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508442</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
         <v>388.6197041282753</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7476,28 +7476,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191923</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191923</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797182</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797182</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279792</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853351</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182185</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>28.00274033431931</v>
       </c>
       <c r="S13" t="n">
-        <v>77.79022981064274</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228889</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>85.98103698774504</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.74112246243959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.04708356698217</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112517583</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711667</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462254</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459483</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345295164</v>
       </c>
       <c r="V40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711718</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879881.4739670028</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879881.4739670026</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
@@ -26430,7 +26430,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26439,7 +26439,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26448,7 +26448,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26522,46 +26522,46 @@
         <v>-974659.3905487761</v>
       </c>
       <c r="C6" t="n">
-        <v>354085.3551788167</v>
+        <v>354085.3551788166</v>
       </c>
       <c r="D6" t="n">
         <v>354085.3551788165</v>
       </c>
       <c r="E6" t="n">
-        <v>105292.0990126618</v>
+        <v>105257.3610872258</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.560820016</v>
+        <v>430669.822894581</v>
       </c>
       <c r="G6" t="n">
-        <v>430704.5608200163</v>
+        <v>430669.8228945804</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.5608200161</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.5608200166</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="J6" t="n">
-        <v>213173.3584227387</v>
+        <v>213138.6204973032</v>
       </c>
       <c r="K6" t="n">
-        <v>430704.5608200161</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="L6" t="n">
-        <v>430704.5608200163</v>
+        <v>430669.8228945803</v>
       </c>
       <c r="M6" t="n">
-        <v>345649.5328845049</v>
+        <v>345614.7949590688</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.5608200165</v>
+        <v>430669.822894581</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200167</v>
+        <v>430669.8228945805</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200164</v>
+        <v>430669.8228945805</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577268</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>34.33804776699088</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>25.97839074928517</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>200.1704191201158</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422355</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.83395077441739</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>53.73645647354672</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747053</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>131.8069424499046</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>143.4417529388363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.127246858037931e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29922,7 +29922,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-7.520489950029638e-12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>150.2061940096338</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.1185924414079</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>556.532545233504</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32467,10 +32467,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>353.6230700590495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>519.7862086120942</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>691.6611968462892</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>396.9700886943673</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181836</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>18.86448192630053</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>187.1368183553864</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>425.1908331501707</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
-        <v>211.4890361370311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>498.1312604966863</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>388.4444965287609</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>560.3194847629559</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>254.836054772349</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060355</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961653</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
